--- a/Models/playAround.xlsx
+++ b/Models/playAround.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>n_estimators_1</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>num_to_keep</t>
+  </si>
+  <si>
+    <t>modelRTR</t>
+  </si>
+  <si>
+    <t>modelLR</t>
+  </si>
+  <si>
+    <t>modelXGB</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
 </sst>
 </file>
@@ -394,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:D3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -424,8 +436,20 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -447,8 +471,20 @@
       <c r="G2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0.6</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <v>1.1373599999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -470,8 +506,20 @@
       <c r="G3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1.3979699999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-8.5849999999999996E-2</v>
       </c>
@@ -493,8 +541,17 @@
       <c r="G4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -517,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -540,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -563,68 +620,68 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>-8.5750000000000007E-2</v>
+      </c>
+      <c r="B8">
+        <v>8.5750000000000007E-2</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1.48212E-2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
         <v>1.41443E-2</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
         <v>1.41365E-2</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="B10">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>1.3882500000000001E-2</v>
-      </c>
       <c r="F10">
         <v>2</v>
       </c>
@@ -632,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -643,125 +700,125 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E11">
+        <v>1.3882500000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
         <v>1.3867900000000001E-2</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>-0.08</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>0.08</v>
       </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
         <v>1.3836299999999999E-2</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
         <v>1.36607E-2</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>-8.5500000000000007E-2</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
         <v>1.35528E-2</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
         <v>1.3461900000000001E-2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="B16">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>1.3014299999999999E-2</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -795,19 +852,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-8.5000000000000006E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="B18">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>1.2912E-2</v>
+        <v>1.3014299999999999E-2</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -818,22 +875,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-7.4999999999999997E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="B19">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>1.24534E-2</v>
+        <v>1.2912E-2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -841,22 +898,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-8.6999999999999994E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="B20">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>1.11807E-2</v>
+        <v>1.24534E-2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -864,10 +921,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-7.6999999999999999E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="B21">
-        <v>9.2999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -876,7 +933,7 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <v>1.1177400000000001E-2</v>
+        <v>1.11807E-2</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -887,19 +944,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-7.4999999999999997E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="B22">
-        <v>8.5999999999999993E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22">
-        <v>1.1115699999999999E-2</v>
+        <v>1.1177400000000001E-2</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -910,24 +967,47 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-8.5999999999999993E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="B23">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23">
+        <v>1.1115699999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
         <v>9.1196000000000003E-3</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>10</v>
       </c>
     </row>

--- a/Models/playAround.xlsx
+++ b/Models/playAround.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>n_estimators_1</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>score</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>JC113</t>
+  </si>
+  <si>
+    <t>Jcreeks</t>
+  </si>
+  <si>
+    <t>jg6eb</t>
+  </si>
+  <si>
+    <t>Jc13</t>
   </si>
 </sst>
 </file>
@@ -406,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -436,20 +454,29 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -463,233 +490,255 @@
         <v>100</v>
       </c>
       <c r="E2">
+        <v>1.51301E-2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-8.5800000000000001E-2</v>
+      </c>
+      <c r="B3">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>1.51253E-2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>0.6</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>1.1373599999999999E-2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-8.5750000000000007E-2</v>
+      </c>
+      <c r="B4">
+        <v>8.5750000000000007E-2</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <v>1.51226E-2</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="I2">
-        <v>0.6</v>
-      </c>
-      <c r="J2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0.7</v>
+      </c>
+      <c r="L4">
         <v>0.3</v>
       </c>
-      <c r="K2">
-        <v>0.1</v>
-      </c>
-      <c r="L2">
-        <v>1.1373599999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.3979699999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>-8.5750000000000007E-2</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>8.5750000000000007E-2</v>
       </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
         <v>1.5096699999999999E-2</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>0.7</v>
-      </c>
-      <c r="J3">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
         <v>0.3</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1.3979699999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="M5">
+        <v>0.2</v>
+      </c>
+      <c r="N5">
+        <v>1.03307E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>-8.5849999999999996E-2</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>8.5849999999999996E-2</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
         <v>1.49871E-2</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4">
-        <v>0.2</v>
-      </c>
-      <c r="K4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C5">
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1.4966E-2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C9">
         <v>125</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
         <v>1.4889299999999999E-2</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C6">
+      <c r="C10">
         <v>125</v>
       </c>
-      <c r="D6">
+      <c r="D10">
         <v>125</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="B7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="C7">
-        <v>125</v>
-      </c>
-      <c r="D7">
-        <v>75</v>
-      </c>
-      <c r="E7">
-        <v>1.48684E-2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-8.5750000000000007E-2</v>
-      </c>
-      <c r="B8">
-        <v>8.5750000000000007E-2</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>1.48212E-2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="B9">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>1.41443E-2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="B10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>1.41365E-2</v>
-      </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -697,13 +746,13 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E11">
-        <v>1.3882500000000001E-2</v>
+        <v>1.48684E-2</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -711,128 +760,152 @@
       <c r="G11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>-8.5750000000000007E-2</v>
+      </c>
+      <c r="B12">
+        <v>8.5750000000000007E-2</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>1.48212E-2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-8.5750000000000007E-2</v>
+      </c>
+      <c r="B13">
+        <v>8.5750000000000007E-2</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>1.4733E-2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="B14">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1.41613E-2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="B15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1.41443E-2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>1.41365E-2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>1.3867900000000001E-2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-0.08</v>
-      </c>
-      <c r="B13">
-        <v>0.08</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>1.3836299999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="B14">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>1.36607E-2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-8.5500000000000007E-2</v>
-      </c>
-      <c r="B15">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>1.35528E-2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="B16">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>1.3461900000000001E-2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="B17">
-        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -841,7 +914,7 @@
         <v>50</v>
       </c>
       <c r="E17">
-        <v>1.3014299999999999E-2</v>
+        <v>1.3882500000000001E-2</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -849,22 +922,25 @@
       <c r="G17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-7.4999999999999997E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B18">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>1.3014299999999999E-2</v>
+        <v>1.3867900000000001E-2</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -872,13 +948,16 @@
       <c r="G18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-8.5000000000000006E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="B19">
-        <v>8.6999999999999994E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -887,7 +966,7 @@
         <v>100</v>
       </c>
       <c r="E19">
-        <v>1.2912E-2</v>
+        <v>1.3836299999999999E-2</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -895,36 +974,42 @@
       <c r="G19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-7.4999999999999997E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B20">
-        <v>8.5000000000000006E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>1.24534E-2</v>
+        <v>1.36607E-2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-8.6999999999999994E-2</v>
+        <v>-8.5500000000000007E-2</v>
       </c>
       <c r="B21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -933,7 +1018,7 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <v>1.11807E-2</v>
+        <v>1.35528E-2</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -941,13 +1026,16 @@
       <c r="G21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-7.6999999999999999E-2</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="B22">
-        <v>9.2999999999999999E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -956,7 +1044,7 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>1.1177400000000001E-2</v>
+        <v>1.3461900000000001E-2</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -964,51 +1052,216 @@
       <c r="G22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="B23">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C23">
         <v>50</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E23">
+        <v>1.3014299999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>1.3014299999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="B25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1.2912E-2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>1.24534E-2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="B27">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>1.11807E-2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="B28">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>1.1177400000000001E-2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B29">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
         <v>1.1115699999999999E-2</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B24">
+      <c r="B30">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24">
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
         <v>9.1196000000000003E-3</v>
       </c>
-      <c r="F24">
+      <c r="F30">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>10</v>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Models/playAround.xlsx
+++ b/Models/playAround.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingguo/Desktop/KaggleCompetition/Models/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>n_estimators_1</t>
   </si>
@@ -39,46 +50,73 @@
     <t>max_elts</t>
   </si>
   <si>
+    <t>num_to_keep</t>
+  </si>
+  <si>
+    <t>modelRTR</t>
+  </si>
+  <si>
+    <t>modelLR</t>
+  </si>
+  <si>
+    <t>modelXGB</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>JC113</t>
+  </si>
+  <si>
+    <t>Jcreeks</t>
+  </si>
+  <si>
+    <t>jg6eb</t>
+  </si>
+  <si>
+    <t>Jc13</t>
+  </si>
+  <si>
+    <t>jg6ebuva</t>
+  </si>
+  <si>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>JCreeks</t>
+  </si>
+  <si>
+    <t>recursive size</t>
+  </si>
+  <si>
+    <t>corrected</t>
+  </si>
+  <si>
+    <t>lastvalue, d_mean</t>
+  </si>
+  <si>
+    <t>lastvalue, d_mean, mean residual</t>
+  </si>
+  <si>
+    <t>lastvalue, d_mean, mean residual, trainer=residual, L3 fit train.y</t>
+  </si>
+  <si>
+    <t>n_neighbors</t>
+  </si>
+  <si>
     <t>OT</t>
-  </si>
-  <si>
-    <t>num_to_keep</t>
-  </si>
-  <si>
-    <t>modelRTR</t>
-  </si>
-  <si>
-    <t>modelLR</t>
-  </si>
-  <si>
-    <t>modelXGB</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>JC113</t>
-  </si>
-  <si>
-    <t>Jcreeks</t>
-  </si>
-  <si>
-    <t>jg6eb</t>
-  </si>
-  <si>
-    <t>Jc13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -446,42 +484,54 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-8.5750000000000007E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B2">
-        <v>8.5750000000000007E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -490,27 +540,36 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>1.51301E-2</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>0.995</v>
       </c>
       <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-8.5800000000000001E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B3">
-        <v>8.5800000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -519,37 +578,31 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>1.51253E-2</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>0.995</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+        <v>0.9</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.6</v>
-      </c>
-      <c r="L3">
-        <v>0.3</v>
-      </c>
-      <c r="M3">
-        <v>0.1</v>
-      </c>
-      <c r="N3">
-        <v>1.1373599999999999E-2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.54089E-2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -557,214 +610,318 @@
         <v>8.5750000000000007E-2</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>1.51226E-2</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>0.995</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>1.5370999999999999E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-8.5849999999999996E-2</v>
+      </c>
+      <c r="B5">
+        <v>8.5849999999999996E-2</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.995</v>
+      </c>
+      <c r="H5">
+        <v>0.9</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>1.53163E-2</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
       </c>
-      <c r="K4">
-        <v>0.7</v>
-      </c>
-      <c r="L4">
-        <v>0.3</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1.3979699999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.995</v>
+      </c>
+      <c r="H6">
+        <v>0.95</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>1.53092E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>1.5156899999999999E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>-8.5750000000000007E-2</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>8.5750000000000007E-2</v>
       </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>1.5096699999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0.5</v>
-      </c>
-      <c r="L5">
-        <v>0.3</v>
-      </c>
-      <c r="M5">
-        <v>0.2</v>
-      </c>
-      <c r="N5">
-        <v>1.03307E-2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-8.5849999999999996E-2</v>
-      </c>
-      <c r="B6">
-        <v>8.5849999999999996E-2</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>1.49871E-2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="B8">
-        <v>8.5999999999999993E-2</v>
-      </c>
       <c r="C8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>1.4966E-2</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>1.5199799999999999E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-8.5999999999999993E-2</v>
+        <v>-8.5750000000000007E-2</v>
       </c>
       <c r="B9">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5750000000000007E-2</v>
       </c>
       <c r="C9">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>1.4889299999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>1.51301E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-8.5999999999999993E-2</v>
+        <v>-8.5750000000000007E-2</v>
       </c>
       <c r="B10">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5750000000000007E-2</v>
       </c>
       <c r="C10">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>125</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>1.5125599999999999E-2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-8.5999999999999993E-2</v>
+        <v>-8.5800000000000001E-2</v>
       </c>
       <c r="B11">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>1.48684E-2</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>1.51253E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <v>0.6</v>
+      </c>
+      <c r="P11">
+        <v>0.3</v>
+      </c>
+      <c r="Q11">
+        <v>0.1</v>
+      </c>
+      <c r="R11">
+        <v>1.1373599999999999E-2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -778,19 +935,43 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>1.48212E-2</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>0.99</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>1.51226E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>0.7</v>
+      </c>
+      <c r="P12">
+        <v>0.3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.3979699999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -804,27 +985,48 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <v>1.4733E-2</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>0.99</v>
       </c>
       <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>1.5096699999999999E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <v>0.3</v>
+      </c>
+      <c r="Q13">
+        <v>0.2</v>
+      </c>
+      <c r="R13">
+        <v>1.03307E-2</v>
+      </c>
+      <c r="S13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-8.5000000000000006E-2</v>
+        <v>-8.5849999999999996E-2</v>
       </c>
       <c r="B14">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5849999999999996E-2</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -833,74 +1035,101 @@
         <v>100</v>
       </c>
       <c r="E14">
-        <v>1.41613E-2</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>1.49871E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>0.99</v>
+      </c>
+      <c r="H15">
+        <v>0.9</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>1.4966E-2</v>
+      </c>
+      <c r="M15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="B15">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>1.41443E-2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-7.4999999999999997E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B16">
-        <v>7.4999999999999997E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D16">
         <v>100</v>
       </c>
       <c r="E16">
-        <v>1.41365E-2</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>1.4889299999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -908,25 +1137,37 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E17">
-        <v>1.3882500000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>1.49452E-2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -934,30 +1175,39 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E18">
-        <v>1.3867900000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>1.48684E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-0.08</v>
+        <v>-8.5750000000000007E-2</v>
       </c>
       <c r="B19">
-        <v>0.08</v>
+        <v>8.5750000000000007E-2</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -966,50 +1216,71 @@
         <v>100</v>
       </c>
       <c r="E19">
-        <v>1.3836299999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>1.48212E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>-8.5750000000000007E-2</v>
+      </c>
+      <c r="B20">
+        <v>8.5750000000000007E-2</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>0.99</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>1.4733E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B20">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>1.36607E-2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-8.5500000000000007E-2</v>
-      </c>
       <c r="B21">
-        <v>8.5500000000000007E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -1018,21 +1289,33 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <v>1.35528E-2</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>1.4715499999999999E-2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-8.4000000000000005E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B22">
         <v>8.5999999999999993E-2</v>
@@ -1044,76 +1327,112 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>1.3461900000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>1.4467000000000001E-2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="B23">
-        <v>8.5000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>1.3014299999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>1.41613E-2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-7.4999999999999997E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="B24">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>1.3014299999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>1.41443E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-8.5000000000000006E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="B25">
-        <v>8.6999999999999994E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -1122,24 +1441,33 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <v>1.2912E-2</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>1.41365E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-7.4999999999999997E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B26">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -1148,24 +1476,33 @@
         <v>50</v>
       </c>
       <c r="E26">
-        <v>1.24534E-2</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>1.3882500000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>-8.6999999999999994E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="B27">
-        <v>8.6999999999999994E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -1174,100 +1511,676 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <v>1.11807E-2</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>1.3879799999999999E-2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-7.6999999999999999E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B28">
-        <v>9.2999999999999999E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
       <c r="E28">
-        <v>1.1177400000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>1.3867900000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-7.4999999999999997E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B29">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>0.995</v>
+      </c>
+      <c r="H29">
+        <v>0.9</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>1.3673599999999999E-2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-0.08</v>
+      </c>
+      <c r="B30">
+        <v>0.08</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>0.99</v>
+      </c>
+      <c r="H30">
+        <v>0.9</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <v>1.3836299999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B31">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>0.99</v>
+      </c>
+      <c r="H31">
+        <v>0.9</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>1.36607E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-8.5500000000000007E-2</v>
+      </c>
+      <c r="B32">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>0.99</v>
+      </c>
+      <c r="H32">
+        <v>0.9</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>1.35528E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>0.99</v>
+      </c>
+      <c r="H33">
+        <v>0.9</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <v>1.34647E-2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="B34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>0.99</v>
+      </c>
+      <c r="H34">
+        <v>0.9</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>1.3461900000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C35">
         <v>50</v>
       </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>0.99</v>
+      </c>
+      <c r="H35">
+        <v>0.9</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>1.3014299999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B36">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>0.99</v>
+      </c>
+      <c r="H36">
+        <v>0.9</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>30</v>
+      </c>
+      <c r="K36">
+        <v>1.3014299999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="B37">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>0.99</v>
+      </c>
+      <c r="H37">
+        <v>0.9</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>30</v>
+      </c>
+      <c r="K37">
+        <v>1.2912E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B38">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>0.995</v>
+      </c>
+      <c r="H38">
+        <v>0.9</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>33</v>
+      </c>
+      <c r="K38">
+        <v>1.20768E-2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="B39">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>0.99</v>
+      </c>
+      <c r="H39">
+        <v>0.9</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>1.11807E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="B40">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>0.99</v>
+      </c>
+      <c r="H40">
+        <v>0.9</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>1.1177400000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B41">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>0.99</v>
+      </c>
+      <c r="H41">
+        <v>0.9</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>30</v>
+      </c>
+      <c r="K41">
         <v>1.1115699999999999E-2</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B30">
+      <c r="B42">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>0.99</v>
+      </c>
+      <c r="H42">
+        <v>0.9</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>30</v>
+      </c>
+      <c r="K42">
         <v>9.1196000000000003E-3</v>
       </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B46">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>0.995</v>
+      </c>
+      <c r="H46">
+        <v>0.9</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>1.4833499999999999E-2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B47">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>0.995</v>
+      </c>
+      <c r="H47">
+        <v>0.9</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>1.4439E-2</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B48">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>0.99</v>
+      </c>
+      <c r="H48">
+        <v>0.9</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F18">
-    <sortCondition descending="1" ref="E2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Models/playAround.xlsx
+++ b/Models/playAround.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingguo/Desktop/KaggleCompetition/Models/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9578" windowHeight="1905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +14,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>n_estimators_1</t>
   </si>
@@ -104,19 +99,22 @@
     <t>lastvalue, d_mean, mean residual</t>
   </si>
   <si>
-    <t>lastvalue, d_mean, mean residual, trainer=residual, L3 fit train.y</t>
-  </si>
-  <si>
     <t>n_neighbors</t>
   </si>
   <si>
     <t>OT</t>
+  </si>
+  <si>
+    <t>lastvalue, d_mean, mean residual, trainer=residual, L3 fit train.y XGB ensemble</t>
+  </si>
+  <si>
+    <t>lastvalue, d_mean, mean residual, trainer=residual, L3 fit train.y rft stacking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -499,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -526,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -558,13 +563,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -602,7 +607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -640,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>-8.5849999999999996E-2</v>
       </c>
@@ -678,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -716,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -754,7 +759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -792,7 +797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -830,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -868,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>-8.5800000000000001E-2</v>
       </c>
@@ -921,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -971,7 +976,7 @@
         <v>1.3979699999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>-8.5849999999999996E-2</v>
       </c>
@@ -1056,45 +1061,45 @@
         <v>1.49871E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>0.99</v>
-      </c>
-      <c r="H15">
-        <v>0.9</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>30</v>
-      </c>
-      <c r="K15">
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1">
         <v>1.4966E-2</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>1.4889299999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>1.48684E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>1.48212E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -1275,7 +1280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1351,7 +1356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1389,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>-8.5000000000000006E-2</v>
       </c>
@@ -1427,7 +1432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1462,7 +1467,7 @@
         <v>1.41365E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>1.3882500000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>-0.08</v>
       </c>
@@ -1535,7 +1540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>1.3867900000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>-0.08</v>
       </c>
@@ -1643,7 +1648,7 @@
         <v>1.3836299999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>1.36607E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>-8.5500000000000007E-2</v>
       </c>
@@ -1713,7 +1718,7 @@
         <v>1.35528E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>-8.4000000000000005E-2</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>1.3461900000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1821,7 +1826,7 @@
         <v>1.3014299999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1856,7 +1861,7 @@
         <v>1.3014299999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>-8.5000000000000006E-2</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>1.2912E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1929,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>-8.6999999999999994E-2</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>1.11807E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>-7.6999999999999999E-2</v>
       </c>
@@ -1999,7 +2004,7 @@
         <v>1.1177400000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>1.1115699999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2069,7 +2074,45 @@
         <v>9.1196000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>0.99</v>
+      </c>
+      <c r="H45">
+        <v>0.9</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1.4478599999999999E-2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2107,12 +2150,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>-8.5999999999999993E-2</v>
+        <v>-8.5750000000000007E-2</v>
       </c>
       <c r="B47">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5750000000000007E-2</v>
       </c>
       <c r="C47">
         <v>100</v>
@@ -2135,17 +2178,14 @@
       <c r="I47">
         <v>2</v>
       </c>
-      <c r="K47">
-        <v>1.4439E-2</v>
-      </c>
       <c r="L47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2162,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="H48">
         <v>0.9</v>
@@ -2174,10 +2214,232 @@
         <v>2</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M48" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B51">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>0.995</v>
+      </c>
+      <c r="H51">
+        <v>0.9</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>1.4439E-2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>-8.5750000000000007E-2</v>
+      </c>
+      <c r="B52">
+        <v>8.5750000000000007E-2</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>0.995</v>
+      </c>
+      <c r="H52">
+        <v>0.9</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B53">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>0.995</v>
+      </c>
+      <c r="H53">
+        <v>0.9</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B54">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>0.99</v>
+      </c>
+      <c r="H54">
+        <v>0.9</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B56">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>0.99</v>
+      </c>
+      <c r="H56">
+        <v>0.9</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>-1.9115300000000002E-2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="B59">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>0.99</v>
+      </c>
+      <c r="H59">
+        <v>0.9</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>1.15586E-2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Models/playAround.xlsx
+++ b/Models/playAround.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>n_estimators_1</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>lastvalue, d_mean, mean residual, trainer=residual, L3 fit train.y rft stacking</t>
+  </si>
+  <si>
+    <t>lastvalue, d_mean, stacking rft</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1718,7 +1721,7 @@
         <v>1.35528E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>-8.4000000000000005E-2</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>1.3461900000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>1.3014299999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>1.3014299999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>-8.5000000000000006E-2</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>1.2912E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>-8.6999999999999994E-2</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>1.11807E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>-7.6999999999999999E-2</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>1.1177400000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>1.1115699999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>9.1196000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2149,8 +2152,41 @@
       <c r="M46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="P46">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="R46">
+        <v>100</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>10</v>
+      </c>
+      <c r="U46">
+        <v>0.995</v>
+      </c>
+      <c r="V46">
+        <v>0.9</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -2185,47 +2221,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A48">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A50">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>11</v>
-      </c>
-      <c r="G48">
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
         <v>0.995</v>
       </c>
-      <c r="H48">
-        <v>0.9</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="L48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="H50">
+        <v>0.9</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>1.4439E-2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>-8.5999999999999993E-2</v>
+        <v>-8.5750000000000007E-2</v>
       </c>
       <c r="B51">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5750000000000007E-2</v>
       </c>
       <c r="C51">
         <v>100</v>
@@ -2249,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="K51">
-        <v>1.4439E-2</v>
+        <v>1.47762E-2</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -2286,8 +2325,11 @@
       <c r="I52">
         <v>2</v>
       </c>
+      <c r="K52">
+        <v>1.4288E-2</v>
+      </c>
       <c r="L52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M52" t="s">
         <v>13</v>
@@ -2358,6 +2400,9 @@
       </c>
       <c r="I54">
         <v>2</v>
+      </c>
+      <c r="K54">
+        <v>1.50682E-2</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>

--- a/Models/playAround.xlsx
+++ b/Models/playAround.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingguo/Desktop/KaggleCompetition/Models/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9578" windowHeight="1905"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19340" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>n_estimators_1</t>
   </si>
@@ -112,12 +117,15 @@
   </si>
   <si>
     <t>lastvalue, d_mean, stacking rft</t>
+  </si>
+  <si>
+    <t>lastvalue, d_mean, mean residual, xgb ensemble</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,13 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -534,7 +542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -572,7 +580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -610,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -648,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-8.5849999999999996E-2</v>
       </c>
@@ -686,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -724,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -762,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -800,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -838,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -876,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-8.5800000000000001E-2</v>
       </c>
@@ -929,7 +937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -979,7 +987,7 @@
         <v>1.3979699999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-8.5849999999999996E-2</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>1.49871E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1102,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>1.4889299999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>1.48684E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -1245,7 +1253,7 @@
         <v>1.48212E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -1283,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1397,7 +1405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-8.5000000000000006E-2</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1470,7 +1478,7 @@
         <v>1.41365E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>1.3882500000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-0.08</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>1.3867900000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1616,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-0.08</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>1.3836299999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1686,7 +1694,7 @@
         <v>1.36607E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-8.5500000000000007E-2</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>1.35528E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-8.4000000000000005E-2</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>1.3461900000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>1.3014299999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>1.3014299999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-8.5000000000000006E-2</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>1.2912E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -1937,7 +1945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-8.6999999999999994E-2</v>
       </c>
@@ -1972,7 +1980,7 @@
         <v>1.11807E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-7.6999999999999999E-2</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>1.1177400000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -2042,7 +2050,7 @@
         <v>1.1115699999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2077,7 +2085,7 @@
         <v>9.1196000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2115,7 +2123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2179,6 +2187,9 @@
       <c r="W46">
         <v>2</v>
       </c>
+      <c r="Y46">
+        <v>1.1368E-2</v>
+      </c>
       <c r="Z46" t="s">
         <v>28</v>
       </c>
@@ -2186,12 +2197,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>-8.5750000000000007E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="B47">
-        <v>8.5750000000000007E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C47">
         <v>100</v>
@@ -2203,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47">
         <v>0.995</v>
@@ -2214,6 +2225,9 @@
       <c r="I47">
         <v>2</v>
       </c>
+      <c r="K47">
+        <v>1.47762E-2</v>
+      </c>
       <c r="L47" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2259,7 +2273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -2297,7 +2311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-8.5750000000000007E-2</v>
       </c>
@@ -2335,7 +2349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2373,7 +2387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2410,8 +2424,49 @@
       <c r="M54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="P54">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q54">
+        <v>100</v>
+      </c>
+      <c r="R54">
+        <v>100</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>10</v>
+      </c>
+      <c r="U54">
+        <v>0.99</v>
+      </c>
+      <c r="V54">
+        <v>0.9</v>
+      </c>
+      <c r="W54">
+        <v>2</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y55">
+        <v>2.2342999999999998E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-8.5999999999999993E-2</v>
       </c>
@@ -2449,7 +2504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-8.5999999999999993E-2</v>
       </c>
